--- a/7-6 水滴保对接/水滴产品映射关系.xlsx
+++ b/7-6 水滴保对接/水滴产品映射关系.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +104,42 @@
   </si>
   <si>
     <t>rbcx_bwylx2020_fjx3_sy1</t>
+  </si>
+  <si>
+    <t>人保财险水滴百万医疗服务sy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20BE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平财水滴2020百万医疗服务sy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20BE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人保财险水滴百万医疗服务sy3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20BE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://healthlink.udesk.cn/im_client/?web_plugin_id=111823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://healthlink.udesk.cn/im_client/?web_plugin_id=111833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://healthlink.udesk.cn/im_client/?web_plugin_id=111843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -547,18 +584,36 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" t="s">
         <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -572,4 +627,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>